--- a/hello1.xlsx
+++ b/hello1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,140 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>text input</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>#user-name</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>#pw</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>#to</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>text input</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>#password</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>button onclick input</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>#login</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>text input</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>#user-name</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>#pw</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>#to</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>text input</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>#password</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>button onclick input</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>#login</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/hello1.xlsx
+++ b/hello1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,12 +456,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>expected output element</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>expected output label</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>expected output data</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>expected output state</t>
         </is>
       </c>
     </row>
@@ -485,12 +490,17 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#pw</t>
+          <t>text output</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>#to</t>
+          <t>pw</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>valid</t>
         </is>
       </c>
     </row>
@@ -512,6 +522,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -531,6 +542,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,12 +564,17 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>#pw</t>
+          <t>text output</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>#to</t>
+          <t>pw</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>invalid</t>
         </is>
       </c>
     </row>
@@ -579,6 +596,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -598,6 +616,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -619,12 +638,17 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>#pw</t>
+          <t>text output</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>#to</t>
+          <t>pw</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>empty</t>
         </is>
       </c>
     </row>
@@ -646,6 +670,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -665,6 +690,53 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>text input</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>#user-name</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>text input</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>#password</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
